--- a/ISTests13/IS2013.xlsx
+++ b/ISTests13/IS2013.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="192">
-  <si>
-    <t>Occurrence</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="191">
   <si>
     <t>Stu. Code</t>
   </si>
@@ -31,9 +28,6 @@
     <t>Mode</t>
   </si>
   <si>
-    <t>APT</t>
-  </si>
-  <si>
     <t>12816391/1</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>AFT</t>
-  </si>
-  <si>
     <t>12708793/1</t>
   </si>
   <si>
@@ -590,6 +581,12 @@
   </si>
   <si>
     <t>Test1_Q21 (25)</t>
+  </si>
+  <si>
+    <t>From last year</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1071,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1421,19 +1427,19 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1449,1836 +1455,1589 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G1" t="s">
-        <v>191</v>
-      </c>
       <c r="H1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>186</v>
-      </c>
-      <c r="K1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>12.8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>6.8</v>
       </c>
       <c r="F3">
-        <v>6.8</v>
-      </c>
-      <c r="G3">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>12.8</v>
       </c>
       <c r="F5">
-        <v>12.8</v>
-      </c>
-      <c r="G5">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="E6">
         <v>18.8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>17.600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="E8">
         <v>11.6</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="E10">
         <v>15.2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>5.6</v>
       </c>
       <c r="F11">
-        <v>5.6</v>
-      </c>
-      <c r="G11">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="E13">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>6.8</v>
       </c>
       <c r="F14">
-        <v>6.8</v>
-      </c>
-      <c r="G14">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="E15">
         <v>11.6</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F23">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>10.6</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>11.6</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>11.8</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>2.8</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19">
+      <c r="F45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47">
         <v>15.4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27">
-        <v>10.6</v>
-      </c>
-      <c r="G27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
-      <c r="G30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31">
-        <v>11.6</v>
-      </c>
-      <c r="G31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36">
-        <v>8</v>
-      </c>
-      <c r="G36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37">
-        <v>11.8</v>
-      </c>
-      <c r="G37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40">
-        <v>2.8</v>
-      </c>
-      <c r="G40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44">
-        <v>8</v>
-      </c>
-      <c r="G44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45">
-        <v>8</v>
-      </c>
-      <c r="G45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>102</v>
       </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>103</v>
       </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>105</v>
-      </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48">
+        <v>14</v>
+      </c>
+      <c r="E48">
         <v>15.2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>12.8</v>
       </c>
       <c r="F49">
-        <v>12.8</v>
-      </c>
-      <c r="G49">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>11.6</v>
       </c>
       <c r="F50">
-        <v>11.6</v>
-      </c>
-      <c r="G50">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="E51">
         <v>15.2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>9.1999999999999993</v>
       </c>
       <c r="F52">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G52">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53">
+        <v>14</v>
+      </c>
+      <c r="E53">
         <v>9.4</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54">
+        <v>14</v>
+      </c>
+      <c r="E54">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55">
+        <v>14</v>
+      </c>
+      <c r="E55">
         <v>16.399999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>8.4</v>
       </c>
       <c r="F56">
-        <v>8.4</v>
-      </c>
-      <c r="G56">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58">
+        <v>65.2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59">
         <v>12</v>
       </c>
       <c r="F59">
-        <v>12</v>
-      </c>
-      <c r="G59">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
       </c>
       <c r="F60">
-        <v>6</v>
-      </c>
-      <c r="G60">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>10.4</v>
       </c>
       <c r="F61">
-        <v>10.4</v>
-      </c>
-      <c r="G61">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>10.8</v>
       </c>
       <c r="F62">
-        <v>10.8</v>
-      </c>
-      <c r="G62">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63">
+        <v>14</v>
+      </c>
+      <c r="E63">
         <v>15.8</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>8.6</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
         <v>137</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>9.4</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>138</v>
       </c>
-      <c r="D64" t="s">
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>4.8</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>6.8</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>10.4</v>
+      </c>
+      <c r="F76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78">
+        <v>11.6</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>11.6</v>
+      </c>
+      <c r="F81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>10.4</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83">
         <v>8</v>
       </c>
-      <c r="E64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64">
-        <v>8.6</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>9.6</v>
+      </c>
+      <c r="F85">
         <v>8</v>
       </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65">
-        <v>9.4</v>
-      </c>
-      <c r="G65">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86">
         <v>9.6</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G71">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" t="s">
-        <v>153</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72">
-        <v>4.8</v>
-      </c>
-      <c r="G72">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" t="s">
-        <v>155</v>
-      </c>
-      <c r="D73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G73">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" t="s">
-        <v>156</v>
-      </c>
-      <c r="C74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74">
-        <v>6.8</v>
-      </c>
-      <c r="G74">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
-      </c>
-      <c r="D76" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76">
-        <v>10.4</v>
-      </c>
-      <c r="G76">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" t="s">
-        <v>163</v>
-      </c>
-      <c r="D77" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" t="s">
-        <v>165</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87">
         <v>11.6</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" t="s">
-        <v>167</v>
-      </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79">
-        <v>7</v>
-      </c>
-      <c r="G79">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" t="s">
-        <v>171</v>
-      </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81">
-        <v>11.6</v>
-      </c>
-      <c r="G81">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>172</v>
-      </c>
-      <c r="C82" t="s">
-        <v>173</v>
-      </c>
-      <c r="D82" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82">
-        <v>10.4</v>
-      </c>
-      <c r="G82">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" t="s">
-        <v>174</v>
-      </c>
-      <c r="C83" t="s">
-        <v>175</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" t="s">
-        <v>176</v>
-      </c>
-      <c r="C84" t="s">
-        <v>177</v>
-      </c>
-      <c r="D84" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" t="s">
-        <v>178</v>
-      </c>
-      <c r="C85" t="s">
-        <v>179</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85">
-        <v>9.6</v>
-      </c>
-      <c r="G85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="s">
-        <v>180</v>
-      </c>
-      <c r="C86" t="s">
-        <v>181</v>
-      </c>
-      <c r="D86" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" t="s">
-        <v>182</v>
-      </c>
-      <c r="C87" t="s">
-        <v>183</v>
-      </c>
-      <c r="D87" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" t="s">
-        <v>12</v>
-      </c>
       <c r="F87">
-        <v>11.6</v>
-      </c>
-      <c r="G87">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E58:F58"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ISTests13/IS2013.xlsx
+++ b/ISTests13/IS2013.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="17235" windowHeight="11250"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="IS2013" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="192">
   <si>
     <t>Stu. Code</t>
   </si>
@@ -586,14 +586,17 @@
     <t>From last year</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Total (100)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,7 +1074,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,6 +1083,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1212,7 +1218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1247,7 +1252,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1423,15 +1427,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
@@ -1442,7 +1446,7 @@
     <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1466,7 @@
         <v>188</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
         <v>181</v>
@@ -1483,7 +1487,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1496,8 +1500,11 @@
       <c r="E2">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1517,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1551,7 +1558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1567,8 +1574,11 @@
       <c r="E6">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1584,8 +1594,11 @@
       <c r="E7">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1601,8 +1614,11 @@
       <c r="E8">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1622,7 +1638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1638,8 +1654,11 @@
       <c r="E10">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1659,7 +1678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1673,7 +1692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1689,8 +1708,11 @@
       <c r="E13">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1710,7 +1732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1726,8 +1748,11 @@
       <c r="E15">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1743,8 +1768,11 @@
       <c r="E16">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1760,8 +1788,11 @@
       <c r="E17">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1775,7 +1806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1791,8 +1822,11 @@
       <c r="E19">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1808,8 +1842,11 @@
       <c r="E20">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1825,8 +1862,11 @@
       <c r="E21">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1840,7 +1880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1860,7 +1900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1874,7 +1914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1894,7 +1934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1914,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1934,7 +1974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1950,8 +1990,11 @@
       <c r="E28">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1965,7 +2008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1985,7 +2028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2005,7 +2048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -2021,8 +2064,11 @@
       <c r="E32">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2038,8 +2084,11 @@
       <c r="E33">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2055,8 +2104,11 @@
       <c r="E34">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2072,8 +2124,11 @@
       <c r="E35">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2093,7 +2148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -2113,7 +2168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2133,7 +2188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -2149,8 +2204,11 @@
       <c r="E39">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -2170,7 +2228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -2186,8 +2244,11 @@
       <c r="E41">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -2201,7 +2262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2217,8 +2278,11 @@
       <c r="E43">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2238,7 +2302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -2258,7 +2322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -2274,8 +2338,11 @@
       <c r="E46">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -2291,8 +2358,11 @@
       <c r="E47">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -2308,8 +2378,11 @@
       <c r="E48">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -2329,7 +2402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -2349,7 +2422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -2365,8 +2438,11 @@
       <c r="E51">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -2386,7 +2462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -2402,8 +2478,11 @@
       <c r="E53">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -2419,8 +2498,11 @@
       <c r="E54">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -2436,8 +2518,11 @@
       <c r="E55">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -2457,7 +2542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -2471,7 +2556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -2484,15 +2569,15 @@
       <c r="D58" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58">
+      <c r="F58" s="4"/>
+      <c r="G58" s="1">
         <v>65.2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -2512,7 +2597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -2532,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -2552,7 +2637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -2572,7 +2657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -2588,8 +2673,11 @@
       <c r="E63">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -2609,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -2629,7 +2717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -2645,8 +2733,11 @@
       <c r="E66">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -2662,8 +2753,11 @@
       <c r="E67">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -2677,7 +2771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -2693,8 +2787,11 @@
       <c r="E69">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -2710,8 +2807,11 @@
       <c r="E70">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -2731,7 +2831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -2751,7 +2851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -2771,7 +2871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -2791,7 +2891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -2807,8 +2907,11 @@
       <c r="E75">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -2828,7 +2931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -2844,8 +2947,11 @@
       <c r="E77">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -2865,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -2885,7 +2991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -2901,8 +3007,11 @@
       <c r="E80">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>167</v>
       </c>
@@ -2922,7 +3031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -2942,7 +3051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>171</v>
       </c>
@@ -2958,8 +3067,11 @@
       <c r="E83">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -2975,8 +3087,11 @@
       <c r="E84">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>175</v>
       </c>
@@ -2996,7 +3111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -3012,8 +3127,11 @@
       <c r="E86">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>179</v>
       </c>
